--- a/APLS.xlsx
+++ b/APLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE44554-2A3C-4DDF-A5AD-6B89E5B9201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA3DC1-6B95-44CA-9965-8829CADF449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="6675" windowWidth="15915" windowHeight="8400" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Price</t>
   </si>
@@ -81,9 +81,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>11/26/22 PDUFA</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Approval</t>
   </si>
   <si>
-    <t>Injectable</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -205,6 +199,9 @@
   </si>
   <si>
     <t>Reduced extrafoveal GA growth by 17% with monthly and 23% q2m.</t>
+  </si>
+  <si>
+    <t>Syfovre/Empaveli</t>
   </si>
 </sst>
 </file>
@@ -344,11 +341,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -366,16 +362,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,43 +698,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234D1C3-C4BE-43F2-B9DB-E2CAB01F5DB4}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>28</v>
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -751,145 +746,127 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>44330</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="H3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="8">
-        <v>106.521818</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>8</v>
+      <c r="L3" s="7">
+        <v>110.77200000000001</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f>L2*L3</f>
-        <v>6071.7436259999995</v>
+        <v>6314.0039999999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8">
-        <f>633.456+331.842</f>
-        <v>965.298</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>8</v>
+      <c r="L5" s="7">
+        <f>551.801</f>
+        <v>551.80100000000004</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8">
-        <v>189.16800000000001</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>8</v>
+      <c r="L6" s="7">
+        <v>92.736000000000004</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f>+L4-L5+L6</f>
-        <v>5295.6136259999994</v>
+        <v>5854.9389999999994</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -904,9 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEC44E-3A9A-47B3-8A31-8E621049E97B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -915,8 +890,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
+      <c r="A1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,15 +915,15 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,65 +931,65 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="11" t="s">
-        <v>20</v>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
-        <v>21</v>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
-        <v>22</v>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="11" t="s">
-        <v>35</v>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="11" t="s">
-        <v>38</v>
+      <c r="C24" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="11" t="s">
-        <v>39</v>
+      <c r="C29" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1038,72 +1013,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="9.140625" style="9"/>
+    <col min="3" max="14" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
+    </row>
+    <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20">
         <v>0</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20">
         <v>12.1</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APLS.xlsx
+++ b/APLS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA3DC1-6B95-44CA-9965-8829CADF449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1200A0-1CA4-458F-9ABC-C73A434F6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
+    <workbookView xWindow="780" yWindow="315" windowWidth="34725" windowHeight="20565" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Empaveli" sheetId="2" r:id="rId2"/>
-    <sheet name="Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Model" sheetId="3" r:id="rId2"/>
+    <sheet name="Empaveli" sheetId="2" r:id="rId3"/>
+    <sheet name="Syfovre" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin Shkreli</author>
+  </authors>
+  <commentList>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{4A806E08-7D69-4C6C-B6F3-F795205259D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6000 vials shipped in March</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>Price</t>
   </si>
@@ -144,9 +179,6 @@
     <t>Empaveli, Aspaveli; fka APL-2</t>
   </si>
   <si>
-    <t>intravitreal; subcutaneous twice weekly? 1080mg</t>
-  </si>
-  <si>
     <t>Phase III "PEGASUS" n=80 PNH - NCT03050549</t>
   </si>
   <si>
@@ -201,17 +233,194 @@
     <t>Reduced extrafoveal GA growth by 17% with monthly and 23% q2m.</t>
   </si>
   <si>
-    <t>Syfovre/Empaveli</t>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>PNH</t>
+  </si>
+  <si>
+    <t>Syfovre</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>CEO: Cedric Francois</t>
+  </si>
+  <si>
+    <t>CCO: Adam Townsend</t>
+  </si>
+  <si>
+    <t>CNS active</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>siRNA</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>subcutaneous infusion</t>
+  </si>
+  <si>
+    <t>subcutaneous twice weekly 1080mg</t>
+  </si>
+  <si>
+    <t>Administraiton</t>
+  </si>
+  <si>
+    <t>Geographic atrophy</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>EU, Canada, Australia, UK, Switzerland decisions expected 1H2024</t>
+  </si>
+  <si>
+    <t>Phase II "MERIDIAN" ALS</t>
+  </si>
+  <si>
+    <t>3/6/23: inducements</t>
+  </si>
+  <si>
+    <t>4/6/23: inducements</t>
+  </si>
+  <si>
+    <t>4/27/23: Q123 call date</t>
+  </si>
+  <si>
+    <t>4/17/23: endorsement for GA awareness</t>
+  </si>
+  <si>
+    <t>CMO: Caroline Baumal</t>
+  </si>
+  <si>
+    <t>4/21/23: Validation of Canadian, Australian, UK, Switzerland GA MAAs</t>
+  </si>
+  <si>
+    <t>intravitreal qm or q2m</t>
+  </si>
+  <si>
+    <t>4/23/23: ARVO presentation of DERBY and OAKS</t>
+  </si>
+  <si>
+    <t>5.6 letters better than sham in extrafoveal lesions</t>
+  </si>
+  <si>
+    <t>4/24/23: MERIDIAN ALS study discontinued</t>
+  </si>
+  <si>
+    <t>5/3/23: investor conference</t>
+  </si>
+  <si>
+    <t>5/4/23: Q123 results</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -231,6 +440,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -341,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -377,17 +613,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{90304C19-BC5E-45B0-9B0A-F4944B7AD6FE}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,6 +648,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B88DD12-4EBA-E02A-D303-580D788DAD0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9492343" y="48986"/>
+          <a:ext cx="0" cy="7532914"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AF34C7-A319-41F5-A08D-B8D796272E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15027729" y="0"/>
+          <a:ext cx="0" cy="7859485"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,21 +1052,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234D1C3-C4BE-43F2-B9DB-E2CAB01F5DB4}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
@@ -742,82 +1100,99 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>57</v>
+        <v>88.86</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="25">
         <v>44330</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>24</v>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="I3" s="16"/>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>110.77200000000001</v>
+        <v>116.457008</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44958</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="7">
         <f>L2*L3</f>
-        <v>6314.0039999999999</v>
+        <v>10348.36973088</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
       <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7">
-        <f>551.801</f>
-        <v>551.80100000000004</v>
+        <f>765.083+1.275</f>
+        <v>766.35799999999995</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -827,17 +1202,22 @@
         <v>11</v>
       </c>
       <c r="L6" s="7">
-        <v>92.736000000000004</v>
+        <v>92.808999999999997</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16"/>
@@ -846,42 +1226,1010 @@
       </c>
       <c r="L7" s="7">
         <f>+L4-L5+L6</f>
-        <v>5854.9389999999994</v>
+        <v>9674.8207308799992</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2486.6379999999999</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10">
+        <v>2009</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
+      <c r="G11" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K12" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="26" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="Empaveli!A1" display="Empaveli" xr:uid="{F9D78289-C296-42AB-B102-2402619FF201}"/>
+    <hyperlink ref="B4" location="Syfovre!A1" display="Syfovre" xr:uid="{F9D78289-C296-42AB-B102-2402619FF201}"/>
+    <hyperlink ref="B3" location="Empaveli!A1" display="Empaveli" xr:uid="{E8576F7F-35CA-4147-9797-8325B39595CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
+  <dimension ref="A1:AK39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2">
+        <v>2021</v>
+      </c>
+      <c r="X2">
+        <f>W2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AK2" si="0">X2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="P3" s="19">
+        <f>O3*4</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>P3*1.4</f>
+        <v>103.03999999999999</v>
+      </c>
+      <c r="R3" s="19">
+        <f>Q3*1.4</f>
+        <v>144.25599999999997</v>
+      </c>
+      <c r="Y3" s="7">
+        <f>SUM(O3:R3)</f>
+        <v>339.29599999999994</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>Y3*2.1</f>
+        <v>712.52159999999992</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>Z3*1.5</f>
+        <v>1068.7823999999998</v>
+      </c>
+      <c r="AB3" s="7">
+        <f>AA3*1.1</f>
+        <v>1175.6606399999998</v>
+      </c>
+      <c r="AC3" s="7">
+        <f>AB3*1.1</f>
+        <v>1293.2267039999999</v>
+      </c>
+      <c r="AD3" s="7">
+        <f>AC3*1.1</f>
+        <v>1422.5493744</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>AD3*1.05</f>
+        <v>1493.6768431200001</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AH3" si="1">AE3*1.05</f>
+        <v>1568.3606852760001</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" si="1"/>
+        <v>1646.7787195398002</v>
+      </c>
+      <c r="AH3" s="7">
+        <f t="shared" si="1"/>
+        <v>1729.1176555167904</v>
+      </c>
+      <c r="AI3" s="7">
+        <f>AH3*0.99</f>
+        <v>1711.8264789616223</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f t="shared" ref="AJ3:AK3" si="2">AI3*0.99</f>
+        <v>1694.7082141720061</v>
+      </c>
+      <c r="AK3" s="7">
+        <f t="shared" si="2"/>
+        <v>1677.761132030286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>12.1</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P4" s="7">
+        <f>O4+2</f>
+        <v>22.4</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>P4+2</f>
+        <v>24.4</v>
+      </c>
+      <c r="R4" s="7">
+        <f>Q4+2</f>
+        <v>26.4</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>SUM(O4:R4)</f>
+        <v>93.6</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>Y4*1.01</f>
+        <v>94.536000000000001</v>
+      </c>
+      <c r="AA4" s="7">
+        <f t="shared" ref="AA4:AK4" si="3">Z4*1.01</f>
+        <v>95.481359999999995</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" si="3"/>
+        <v>96.436173599999989</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="3"/>
+        <v>97.40053533599999</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="3"/>
+        <v>98.374540689359989</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="3"/>
+        <v>99.358286096253593</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="3"/>
+        <v>100.35186895721613</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="3"/>
+        <v>101.35538764678829</v>
+      </c>
+      <c r="AH4" s="7">
+        <f t="shared" si="3"/>
+        <v>102.36894152325617</v>
+      </c>
+      <c r="AI4" s="7">
+        <f t="shared" si="3"/>
+        <v>103.39263093848874</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f t="shared" si="3"/>
+        <v>104.42655724787362</v>
+      </c>
+      <c r="AK4" s="7">
+        <f t="shared" si="3"/>
+        <v>105.47082282035235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="7">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>SUM(O5:R5)</f>
+        <v>6.0460000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="20">
+        <f>O4+O5+O3</f>
+        <v>44.845999999999997</v>
+      </c>
+      <c r="P6" s="20">
+        <f>P4+P5+P3</f>
+        <v>96</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" ref="Q6:R6" si="4">Q4+Q5+Q3</f>
+        <v>127.44</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="4"/>
+        <v>170.65599999999998</v>
+      </c>
+      <c r="Y6" s="20">
+        <f>SUM(Y3:Y5)</f>
+        <v>438.94199999999995</v>
+      </c>
+      <c r="Z6" s="20">
+        <f t="shared" ref="Z6:AK6" si="5">SUM(Z3:Z5)</f>
+        <v>807.05759999999987</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="5"/>
+        <v>1164.2637599999998</v>
+      </c>
+      <c r="AB6" s="20">
+        <f t="shared" si="5"/>
+        <v>1272.0968135999999</v>
+      </c>
+      <c r="AC6" s="20">
+        <f t="shared" si="5"/>
+        <v>1390.627239336</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="5"/>
+        <v>1520.92391508936</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="5"/>
+        <v>1593.0351292162536</v>
+      </c>
+      <c r="AF6" s="20">
+        <f t="shared" si="5"/>
+        <v>1668.7125542332162</v>
+      </c>
+      <c r="AG6" s="20">
+        <f t="shared" si="5"/>
+        <v>1748.1341071865886</v>
+      </c>
+      <c r="AH6" s="20">
+        <f t="shared" si="5"/>
+        <v>1831.4865970400465</v>
+      </c>
+      <c r="AI6" s="20">
+        <f t="shared" si="5"/>
+        <v>1815.2191099001111</v>
+      </c>
+      <c r="AJ6" s="20">
+        <f t="shared" si="5"/>
+        <v>1799.1347714198798</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" si="5"/>
+        <v>1783.2319548506384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="7">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="P7" s="7">
+        <f>P6-P8</f>
+        <v>14.400000000000006</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" ref="Q7:R7" si="6">Q6-Q8</f>
+        <v>19.116</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="6"/>
+        <v>25.598399999999998</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>SUM(O7:R7)</f>
+        <v>66.923400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="7">
+        <f>O6-O7</f>
+        <v>37.036999999999999</v>
+      </c>
+      <c r="P8" s="7">
+        <f>P6*0.85</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" ref="Q8:R8" si="7">Q6*0.85</f>
+        <v>108.324</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="7"/>
+        <v>145.05759999999998</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>Y6-Y7</f>
+        <v>372.01859999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="7">
+        <v>110.027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="7">
+        <v>102.093</v>
+      </c>
+      <c r="P10" s="7">
+        <f>O10</f>
+        <v>102.093</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" ref="Q10:R10" si="8">P10</f>
+        <v>102.093</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="8"/>
+        <v>102.093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="7">
+        <f>O9+O10</f>
+        <v>212.12</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" ref="P11:R11" si="9">P9+P10</f>
+        <v>102.093</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="9"/>
+        <v>102.093</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="9"/>
+        <v>102.093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="7">
+        <f>O8-O11</f>
+        <v>-175.083</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:R12" si="10">P8-P11</f>
+        <v>-20.493000000000009</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="10"/>
+        <v>6.2309999999999945</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="10"/>
+        <v>42.964599999999976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="7">
+        <f>5.393-7.529-0.277</f>
+        <v>-2.4130000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="7">
+        <f>O12+O13</f>
+        <v>-177.49600000000001</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" ref="P14:R14" si="11">P12+P13</f>
+        <v>-20.493000000000009</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="11"/>
+        <v>6.2309999999999945</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="11"/>
+        <v>42.964599999999976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="7">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="7">
+        <f>O14-O15</f>
+        <v>-177.77800000000002</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" ref="P16:R16" si="12">P14-P15</f>
+        <v>-20.493000000000009</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="12"/>
+        <v>6.2309999999999945</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="12"/>
+        <v>42.964599999999976</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="27">
+        <f>O8/O6</f>
+        <v>0.82587075770414309</v>
+      </c>
+      <c r="P18" s="27">
+        <f t="shared" ref="P18:R18" si="13">P8/P6</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+      <c r="R18" s="27">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="7">
+        <f>O21-O35</f>
+        <v>673.54899999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="7">
+        <f>765.083+1.275</f>
+        <v>766.35799999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" s="7">
+        <v>31.504999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="7">
+        <v>85.483999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="7">
+        <v>36.558999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="7">
+        <v>34.348999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="7">
+        <v>17.853999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="7">
+        <v>5.9669999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="7">
+        <f>SUM(O21:O28)</f>
+        <v>978.86900000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="7">
+        <v>31.494</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" s="7">
+        <v>71.251000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="7">
+        <f>30.071+321.713</f>
+        <v>351.78400000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="7">
+        <f>5.828+13.233</f>
+        <v>19.061</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="7">
+        <v>92.808999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" s="7">
+        <v>412.12299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O38" s="7">
+        <f>SUM(O31:O37)</f>
+        <v>978.86899999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DA17328F-64FB-4DF9-9BE3-2A05593A4F65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEC44E-3A9A-47B3-8A31-8E621049E97B}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -939,7 +2287,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,44 +2300,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>52</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
-        <v>37</v>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1000,87 +2328,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
-  <dimension ref="A1:N5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B130A-B0D6-4EE5-8C86-27298758E817}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="9.140625" style="8"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20">
-        <v>12.1</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{47222131-8AD3-4163-AFE9-A007369BBA62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APLS.xlsx
+++ b/APLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1200A0-1CA4-458F-9ABC-C73A434F6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190C01B-2974-41F0-B072-05A1A64BB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="315" windowWidth="34725" windowHeight="20565" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Price</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -619,14 +622,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -756,9 +751,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -796,7 +791,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -902,7 +897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1044,7 +1039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1054,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234D1C3-C4BE-43F2-B9DB-E2CAB01F5DB4}">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,27 +1095,27 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>88.86</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="14">
         <v>44330</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I3" s="16"/>
@@ -1128,10 +1123,10 @@
         <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>116.457008</v>
+        <v>121.766328</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -1162,7 +1157,7 @@
       </c>
       <c r="L4" s="7">
         <f>L2*L3</f>
-        <v>10348.36973088</v>
+        <v>4840.2115380000005</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1180,11 +1175,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="7">
-        <f>765.083+1.275</f>
-        <v>766.35799999999995</v>
+        <v>360.08699999999999</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -1202,10 +1196,11 @@
         <v>11</v>
       </c>
       <c r="L6" s="7">
-        <v>92.808999999999997</v>
+        <f>92.809+364.025</f>
+        <v>456.83399999999995</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1226,7 +1221,7 @@
       </c>
       <c r="L7" s="7">
         <f>+L4-L5+L6</f>
-        <v>9674.8207308799992</v>
+        <v>4936.9585379999999</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1246,21 +1241,17 @@
         <v>72</v>
       </c>
       <c r="L8" s="7">
-        <v>2486.6379999999999</v>
+        <v>2941.5680000000002</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
@@ -1276,12 +1267,12 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="22" t="s">
         <v>103</v>
       </c>
       <c r="K12" t="s">
@@ -1289,7 +1280,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>110</v>
       </c>
       <c r="K13" t="s">
@@ -1297,7 +1288,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="22" t="s">
         <v>108</v>
       </c>
       <c r="K14" t="s">
@@ -1305,7 +1296,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>106</v>
       </c>
       <c r="K15" t="s">
@@ -1313,7 +1304,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="22" t="s">
         <v>104</v>
       </c>
       <c r="K16" t="s">
@@ -1321,12 +1312,12 @@
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1343,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2042,19 +2033,19 @@
       <c r="B18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="23">
         <f>O8/O6</f>
         <v>0.82587075770414309</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="23">
         <f t="shared" ref="P18:R18" si="13">P8/P6</f>
         <v>0.85</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="23">
         <f t="shared" si="13"/>
         <v>0.85</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="23">
         <f t="shared" si="13"/>
         <v>0.85</v>
       </c>

--- a/APLS.xlsx
+++ b/APLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190C01B-2974-41F0-B072-05A1A64BB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50459951-39FF-4714-B680-077D0DFF7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
+    <workbookView xWindow="-23220" yWindow="990" windowWidth="22260" windowHeight="19395" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Martin Shkreli</author>
+    <author>tc={58C30732-E571-4EAE-B15E-980B4BED0CEB}</author>
   </authors>
   <commentList>
     <comment ref="O3" authorId="0" shapeId="0" xr:uid="{4A806E08-7D69-4C6C-B6F3-F795205259D6}">
@@ -67,12 +68,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH3" authorId="1" shapeId="0" xr:uid="{58C30732-E571-4EAE-B15E-980B4BED0CEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Patent expires 12/2027</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
   <si>
     <t>Price</t>
   </si>
@@ -182,9 +191,6 @@
     <t>Phase III "PEGASUS" n=80 PNH - NCT03050549</t>
   </si>
   <si>
-    <t>Phase III "VALIANT" IC-MPGN/C3G</t>
-  </si>
-  <si>
     <t>Q120</t>
   </si>
   <si>
@@ -417,6 +423,36 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>68% reduction in proteinuria</t>
+  </si>
+  <si>
+    <t>Phase III "VALIANT" n=124 IC-MPGN/C3G</t>
+  </si>
+  <si>
+    <t>APL-3007</t>
+  </si>
+  <si>
+    <t>Phase II HSCT-TMA</t>
   </si>
 </sst>
 </file>
@@ -649,16 +685,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -673,8 +709,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9492343" y="48986"/>
-          <a:ext cx="0" cy="7532914"/>
+          <a:off x="12578443" y="0"/>
+          <a:ext cx="0" cy="8186057"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -699,15 +735,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>59872</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -723,8 +759,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15027729" y="0"/>
-          <a:ext cx="0" cy="7859485"/>
+          <a:off x="18669001" y="0"/>
+          <a:ext cx="0" cy="8349342"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -748,6 +784,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{52505933-672A-481B-9ECE-CD24D7674232}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,12 +1087,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AH3" dT="2024-10-10T13:12:29.04" personId="{52505933-672A-481B-9ECE-CD24D7674232}" id="{58C30732-E571-4EAE-B15E-980B4BED0CEB}">
+    <text>Patent expires 12/2027</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234D1C3-C4BE-43F2-B9DB-E2CAB01F5DB4}">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>39.75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1106,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1116,7 +1166,7 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="16"/>
       <c r="K3" t="s">
@@ -1126,12 +1176,12 @@
         <v>121.766328</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1157,7 +1207,7 @@
       </c>
       <c r="L4" s="7">
         <f>L2*L3</f>
-        <v>4840.2115380000005</v>
+        <v>3287.6908560000002</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1166,7 +1216,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1178,15 +1228,15 @@
         <v>360.08699999999999</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -1200,18 +1250,18 @@
         <v>456.83399999999995</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1221,30 +1271,32 @@
       </c>
       <c r="L7" s="7">
         <f>+L4-L5+L6</f>
-        <v>4936.9585379999999</v>
+        <v>3384.437856</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="7">
         <v>2941.5680000000002</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1257,10 +1309,10 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10">
         <v>2009</v>
@@ -1268,20 +1320,20 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G11" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G13" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -1289,7 +1341,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G14" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -1297,28 +1349,28 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G15" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1332,13 +1384,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1348,193 +1400,221 @@
     <col min="3" max="14" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="O2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2">
+      <c r="S2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="AB2">
         <v>2021</v>
       </c>
-      <c r="X2">
-        <f>W2+1</f>
+      <c r="AC2">
+        <f>AB2+1</f>
         <v>2022</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AK2" si="0">X2+1</f>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AP2" si="0">AC2+1</f>
         <v>2023</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
       </c>
       <c r="O3" s="19">
         <v>18.399999999999999</v>
       </c>
       <c r="P3" s="19">
-        <f>O3*4</f>
-        <v>73.599999999999994</v>
+        <v>67.3</v>
       </c>
       <c r="Q3" s="19">
-        <f>P3*1.4</f>
-        <v>103.03999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="R3" s="19">
-        <f>Q3*1.4</f>
-        <v>144.25599999999997</v>
-      </c>
-      <c r="Y3" s="7">
+        <v>114.3</v>
+      </c>
+      <c r="S3" s="19">
+        <v>137.5</v>
+      </c>
+      <c r="T3" s="19">
+        <v>154.6</v>
+      </c>
+      <c r="U3" s="19">
+        <f>+T3+25</f>
+        <v>179.6</v>
+      </c>
+      <c r="V3" s="19">
+        <f>+U3+25</f>
+        <v>204.6</v>
+      </c>
+      <c r="W3" s="19"/>
+      <c r="AD3" s="7">
         <f>SUM(O3:R3)</f>
-        <v>339.29599999999994</v>
-      </c>
-      <c r="Z3" s="7">
-        <f>Y3*2.1</f>
-        <v>712.52159999999992</v>
-      </c>
-      <c r="AA3" s="7">
-        <f>Z3*1.5</f>
-        <v>1068.7823999999998</v>
-      </c>
-      <c r="AB3" s="7">
-        <f>AA3*1.1</f>
-        <v>1175.6606399999998</v>
-      </c>
-      <c r="AC3" s="7">
-        <f>AB3*1.1</f>
-        <v>1293.2267039999999</v>
-      </c>
-      <c r="AD3" s="7">
-        <f>AC3*1.1</f>
-        <v>1422.5493744</v>
+        <v>275.3</v>
       </c>
       <c r="AE3" s="7">
-        <f>AD3*1.05</f>
-        <v>1493.6768431200001</v>
+        <f>SUM(S3:V3)</f>
+        <v>676.30000000000007</v>
       </c>
       <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AH3" si="1">AE3*1.05</f>
-        <v>1568.3606852760001</v>
+        <f>AE3*1.5</f>
+        <v>1014.45</v>
       </c>
       <c r="AG3" s="7">
+        <f>AF3*1.1</f>
+        <v>1115.8950000000002</v>
+      </c>
+      <c r="AH3" s="7">
+        <f>AG3*1.1</f>
+        <v>1227.4845000000003</v>
+      </c>
+      <c r="AI3" s="7">
+        <f>+AH3*0.5</f>
+        <v>613.74225000000013</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f t="shared" ref="AJ3:AP3" si="1">+AI3*0.1</f>
+        <v>61.374225000000017</v>
+      </c>
+      <c r="AK3" s="7">
         <f t="shared" si="1"/>
-        <v>1646.7787195398002</v>
-      </c>
-      <c r="AH3" s="7">
+        <v>6.1374225000000022</v>
+      </c>
+      <c r="AL3" s="7">
         <f t="shared" si="1"/>
-        <v>1729.1176555167904</v>
-      </c>
-      <c r="AI3" s="7">
-        <f>AH3*0.99</f>
-        <v>1711.8264789616223</v>
-      </c>
-      <c r="AJ3" s="7">
-        <f t="shared" ref="AJ3:AK3" si="2">AI3*0.99</f>
-        <v>1694.7082141720061</v>
-      </c>
-      <c r="AK3" s="7">
-        <f t="shared" si="2"/>
-        <v>1677.761132030286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.61374225000000027</v>
+      </c>
+      <c r="AM3" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1374225000000032E-2</v>
+      </c>
+      <c r="AN3" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1374225000000032E-3</v>
+      </c>
+      <c r="AO3" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1374225000000032E-4</v>
+      </c>
+      <c r="AP3" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1374225000000035E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1633,9 @@
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="N4" s="19">
+        <v>19.7</v>
+      </c>
       <c r="O4" s="7">
         <v>20.399999999999999</v>
       </c>
@@ -1562,69 +1644,81 @@
         <v>22.4</v>
       </c>
       <c r="Q4" s="7">
-        <f>P4+2</f>
+        <v>23.9</v>
+      </c>
+      <c r="R4" s="7">
         <v>24.4</v>
       </c>
-      <c r="R4" s="7">
-        <f>Q4+2</f>
-        <v>26.4</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="S4" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="T4" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="U4" s="7">
+        <f>+T4+1</f>
+        <v>25.5</v>
+      </c>
+      <c r="V4" s="7">
+        <f>+U4+1</f>
+        <v>26.5</v>
+      </c>
+      <c r="AD4" s="7">
         <f>SUM(O4:R4)</f>
-        <v>93.6</v>
-      </c>
-      <c r="Z4" s="7">
-        <f>Y4*1.01</f>
-        <v>94.536000000000001</v>
-      </c>
-      <c r="AA4" s="7">
-        <f t="shared" ref="AA4:AK4" si="3">Z4*1.01</f>
-        <v>95.481359999999995</v>
-      </c>
-      <c r="AB4" s="7">
-        <f t="shared" si="3"/>
-        <v>96.436173599999989</v>
-      </c>
-      <c r="AC4" s="7">
-        <f t="shared" si="3"/>
-        <v>97.40053533599999</v>
-      </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="3"/>
-        <v>98.374540689359989</v>
+        <v>91.1</v>
       </c>
       <c r="AE4" s="7">
-        <f t="shared" si="3"/>
-        <v>99.358286096253593</v>
+        <f>SUM(S4:V4)</f>
+        <v>102.1</v>
       </c>
       <c r="AF4" s="7">
-        <f t="shared" si="3"/>
-        <v>100.35186895721613</v>
+        <f t="shared" ref="AF4:AP4" si="2">AE4*1.01</f>
+        <v>103.121</v>
       </c>
       <c r="AG4" s="7">
-        <f t="shared" si="3"/>
-        <v>101.35538764678829</v>
+        <f t="shared" si="2"/>
+        <v>104.15221</v>
       </c>
       <c r="AH4" s="7">
-        <f t="shared" si="3"/>
-        <v>102.36894152325617</v>
+        <f t="shared" si="2"/>
+        <v>105.19373209999999</v>
       </c>
       <c r="AI4" s="7">
-        <f t="shared" si="3"/>
-        <v>103.39263093848874</v>
+        <f t="shared" si="2"/>
+        <v>106.24566942099999</v>
       </c>
       <c r="AJ4" s="7">
-        <f t="shared" si="3"/>
-        <v>104.42655724787362</v>
+        <f t="shared" si="2"/>
+        <v>107.30812611520999</v>
       </c>
       <c r="AK4" s="7">
-        <f t="shared" si="3"/>
-        <v>105.47082282035235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>108.38120737636208</v>
+      </c>
+      <c r="AL4" s="7">
+        <f t="shared" si="2"/>
+        <v>109.46501945012571</v>
+      </c>
+      <c r="AM4" s="7">
+        <f t="shared" si="2"/>
+        <v>110.55966964462696</v>
+      </c>
+      <c r="AN4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.66526634107323</v>
+      </c>
+      <c r="AO4" s="7">
+        <f t="shared" si="2"/>
+        <v>112.78191900448397</v>
+      </c>
+      <c r="AP4" s="7">
+        <f t="shared" si="2"/>
+        <v>113.90973819452881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -1637,18 +1731,39 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="N5" s="19">
+        <v>3.01</v>
+      </c>
       <c r="O5" s="7">
         <v>6.0460000000000003</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="P5" s="7">
+        <v>5.3239999999999998</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>11.217000000000001</v>
+      </c>
+      <c r="R5" s="7">
+        <v>7.7220000000000004</v>
+      </c>
+      <c r="S5" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="T5" s="7">
+        <v>20.548999999999999</v>
+      </c>
+      <c r="AD5" s="7">
         <f>SUM(O5:R5)</f>
-        <v>6.0460000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30.309000000000005</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>SUM(S5:V5)</f>
+        <v>29.798999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -1661,79 +1776,98 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="20">
+        <f>N4+N5+N3</f>
+        <v>22.71</v>
+      </c>
       <c r="O6" s="20">
         <f>O4+O5+O3</f>
         <v>44.845999999999997</v>
       </c>
       <c r="P6" s="20">
         <f>P4+P5+P3</f>
-        <v>96</v>
+        <v>95.024000000000001</v>
       </c>
       <c r="Q6" s="20">
-        <f t="shared" ref="Q6:R6" si="4">Q4+Q5+Q3</f>
-        <v>127.44</v>
+        <f t="shared" ref="Q6:V6" si="3">Q4+Q5+Q3</f>
+        <v>110.417</v>
       </c>
       <c r="R6" s="20">
+        <f t="shared" si="3"/>
+        <v>146.422</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="3"/>
+        <v>172.35</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="3"/>
+        <v>199.649</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="3"/>
+        <v>205.1</v>
+      </c>
+      <c r="V6" s="20">
+        <f t="shared" si="3"/>
+        <v>231.1</v>
+      </c>
+      <c r="AD6" s="20">
+        <f>SUM(AD3:AD5)</f>
+        <v>396.709</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" ref="AE6:AP6" si="4">SUM(AE3:AE5)</f>
+        <v>808.19900000000007</v>
+      </c>
+      <c r="AF6" s="20">
         <f t="shared" si="4"/>
-        <v>170.65599999999998</v>
-      </c>
-      <c r="Y6" s="20">
-        <f>SUM(Y3:Y5)</f>
-        <v>438.94199999999995</v>
-      </c>
-      <c r="Z6" s="20">
-        <f t="shared" ref="Z6:AK6" si="5">SUM(Z3:Z5)</f>
-        <v>807.05759999999987</v>
-      </c>
-      <c r="AA6" s="20">
-        <f t="shared" si="5"/>
-        <v>1164.2637599999998</v>
-      </c>
-      <c r="AB6" s="20">
-        <f t="shared" si="5"/>
-        <v>1272.0968135999999</v>
-      </c>
-      <c r="AC6" s="20">
-        <f t="shared" si="5"/>
-        <v>1390.627239336</v>
-      </c>
-      <c r="AD6" s="20">
-        <f t="shared" si="5"/>
-        <v>1520.92391508936</v>
-      </c>
-      <c r="AE6" s="20">
-        <f t="shared" si="5"/>
-        <v>1593.0351292162536</v>
-      </c>
-      <c r="AF6" s="20">
-        <f t="shared" si="5"/>
-        <v>1668.7125542332162</v>
+        <v>1117.5710000000001</v>
       </c>
       <c r="AG6" s="20">
-        <f t="shared" si="5"/>
-        <v>1748.1341071865886</v>
+        <f t="shared" si="4"/>
+        <v>1220.0472100000002</v>
       </c>
       <c r="AH6" s="20">
-        <f t="shared" si="5"/>
-        <v>1831.4865970400465</v>
+        <f t="shared" si="4"/>
+        <v>1332.6782321000003</v>
       </c>
       <c r="AI6" s="20">
-        <f t="shared" si="5"/>
-        <v>1815.2191099001111</v>
+        <f t="shared" si="4"/>
+        <v>719.98791942100013</v>
       </c>
       <c r="AJ6" s="20">
-        <f t="shared" si="5"/>
-        <v>1799.1347714198798</v>
+        <f t="shared" si="4"/>
+        <v>168.68235111521</v>
       </c>
       <c r="AK6" s="20">
-        <f t="shared" si="5"/>
-        <v>1783.2319548506384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>114.51862987636208</v>
+      </c>
+      <c r="AL6" s="20">
+        <f t="shared" si="4"/>
+        <v>110.07876170012571</v>
+      </c>
+      <c r="AM6" s="20">
+        <f t="shared" si="4"/>
+        <v>110.62104386962696</v>
+      </c>
+      <c r="AN6" s="20">
+        <f t="shared" si="4"/>
+        <v>111.67140376357324</v>
+      </c>
+      <c r="AO6" s="20">
+        <f t="shared" si="4"/>
+        <v>112.78253274673396</v>
+      </c>
+      <c r="AP6" s="20">
+        <f t="shared" si="4"/>
+        <v>113.90979956875381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1746,30 +1880,47 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="N7" s="19">
+        <v>2.9249999999999998</v>
+      </c>
       <c r="O7" s="7">
         <v>7.8090000000000002</v>
       </c>
       <c r="P7" s="7">
-        <f>P6-P8</f>
-        <v>14.400000000000006</v>
+        <v>8.3789999999999996</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" ref="Q7:R7" si="6">Q6-Q8</f>
-        <v>19.116</v>
+        <v>22.41</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="6"/>
-        <v>25.598399999999998</v>
-      </c>
-      <c r="Y7" s="7">
+        <v>19.911999999999999</v>
+      </c>
+      <c r="S7" s="7">
+        <v>20.209</v>
+      </c>
+      <c r="T7" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="U7" s="7">
+        <f>+U6-U8</f>
+        <v>20.509999999999991</v>
+      </c>
+      <c r="V7" s="7">
+        <f>+V6-V8</f>
+        <v>23.109999999999985</v>
+      </c>
+      <c r="AD7" s="7">
         <f>SUM(O7:R7)</f>
-        <v>66.923400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>58.51</v>
+      </c>
+      <c r="AE7" s="7">
+        <f>SUM(S7:V7)</f>
+        <v>86.928999999999974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -1782,31 +1933,66 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="N8" s="19">
+        <f>+N6-N7</f>
+        <v>19.785</v>
+      </c>
       <c r="O8" s="7">
         <f>O6-O7</f>
         <v>37.036999999999999</v>
       </c>
       <c r="P8" s="7">
         <f>P6*0.85</f>
-        <v>81.599999999999994</v>
+        <v>80.770399999999995</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" ref="Q8:R8" si="7">Q6*0.85</f>
-        <v>108.324</v>
+        <f>+Q6-Q7</f>
+        <v>88.007000000000005</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="7"/>
-        <v>145.05759999999998</v>
-      </c>
-      <c r="Y8" s="7">
-        <f>Y6-Y7</f>
-        <v>372.01859999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+R6-R7</f>
+        <v>126.50999999999999</v>
+      </c>
+      <c r="S8" s="7">
+        <f>+S6-S7</f>
+        <v>152.14099999999999</v>
+      </c>
+      <c r="T8" s="7">
+        <f>+T6-T7</f>
+        <v>176.54900000000001</v>
+      </c>
+      <c r="U8" s="7">
+        <f>+U6*0.9</f>
+        <v>184.59</v>
+      </c>
+      <c r="V8" s="7">
+        <f>+V6*0.9</f>
+        <v>207.99</v>
+      </c>
+      <c r="AD8" s="7">
+        <f>+AD6-AD7</f>
+        <v>338.19900000000001</v>
+      </c>
+      <c r="AE8" s="7">
+        <f>+AE6-AE7</f>
+        <v>721.2700000000001</v>
+      </c>
+      <c r="AF8" s="7">
+        <f>+AF6*0.9</f>
+        <v>1005.8139000000001</v>
+      </c>
+      <c r="AG8" s="7">
+        <f>+AG6*0.9</f>
+        <v>1098.0424890000002</v>
+      </c>
+      <c r="AH8" s="7">
+        <f>+AH6*0.9</f>
+        <v>1199.4104088900003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -1819,14 +2005,39 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="N9" s="19">
+        <v>99.423000000000002</v>
+      </c>
       <c r="O9" s="7">
         <v>110.027</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="7">
+        <v>95.658000000000001</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>79.421000000000006</v>
+      </c>
+      <c r="R9" s="7">
+        <v>69.281999999999996</v>
+      </c>
+      <c r="S9" s="7">
+        <v>84.700999999999993</v>
+      </c>
+      <c r="T9" s="7">
+        <v>77.947000000000003</v>
+      </c>
+      <c r="AD9" s="7">
+        <f>SUM(O9:R9)</f>
+        <v>354.38799999999998</v>
+      </c>
+      <c r="AE9" s="7">
+        <f>SUM(S9:V9)</f>
+        <v>162.648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -1839,26 +2050,59 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="N10" s="19">
+        <v>84.367999999999995</v>
+      </c>
       <c r="O10" s="7">
         <v>102.093</v>
       </c>
       <c r="P10" s="7">
-        <f>O10</f>
-        <v>102.093</v>
+        <v>111.373</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" ref="Q10:R10" si="8">P10</f>
-        <v>102.093</v>
+        <v>145.648</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="8"/>
-        <v>102.093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>141.70099999999999</v>
+      </c>
+      <c r="S10" s="7">
+        <v>129.505</v>
+      </c>
+      <c r="T10" s="7">
+        <v>128.08099999999999</v>
+      </c>
+      <c r="U10" s="7">
+        <f>+Q10</f>
+        <v>145.648</v>
+      </c>
+      <c r="V10" s="7">
+        <f>+R10</f>
+        <v>141.70099999999999</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>SUM(O10:R10)</f>
+        <v>500.81500000000005</v>
+      </c>
+      <c r="AE10" s="7">
+        <f>SUM(S10:V10)</f>
+        <v>544.93500000000006</v>
+      </c>
+      <c r="AF10" s="7">
+        <f>+AE10*0.5</f>
+        <v>272.46750000000003</v>
+      </c>
+      <c r="AG10" s="7">
+        <f>+AF10*0.5</f>
+        <v>136.23375000000001</v>
+      </c>
+      <c r="AH10" s="7">
+        <f>+AG10*0.5</f>
+        <v>68.116875000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -1871,27 +2115,66 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="7">
+        <f>N9+N10</f>
+        <v>183.791</v>
+      </c>
       <c r="O11" s="7">
         <f>O9+O10</f>
         <v>212.12</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" ref="P11:R11" si="9">P9+P10</f>
-        <v>102.093</v>
+        <f t="shared" ref="P11:R11" si="5">P9+P10</f>
+        <v>207.03100000000001</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="9"/>
-        <v>102.093</v>
+        <f t="shared" si="5"/>
+        <v>225.06900000000002</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="9"/>
-        <v>102.093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>210.983</v>
+      </c>
+      <c r="S11" s="7">
+        <f>+S9+S10</f>
+        <v>214.20599999999999</v>
+      </c>
+      <c r="T11" s="7">
+        <f>+T9+T10</f>
+        <v>206.02799999999999</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" ref="U11:V11" si="6">+U9+U10</f>
+        <v>145.648</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="6"/>
+        <v>141.70099999999999</v>
+      </c>
+      <c r="AD11" s="7">
+        <f>+AD10+AD9</f>
+        <v>855.20299999999997</v>
+      </c>
+      <c r="AE11" s="7">
+        <f>+AE10+AE9</f>
+        <v>707.58300000000008</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" ref="AF11:AG11" si="7">+AF10+AF9</f>
+        <v>272.46750000000003</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="7"/>
+        <v>136.23375000000001</v>
+      </c>
+      <c r="AH11" s="7">
+        <f t="shared" ref="AH11" si="8">+AH10+AH9</f>
+        <v>68.116875000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -1904,27 +2187,66 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="N12" s="7">
+        <f>N8-N11</f>
+        <v>-164.006</v>
+      </c>
       <c r="O12" s="7">
         <f>O8-O11</f>
         <v>-175.083</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" ref="P12:R12" si="10">P8-P11</f>
-        <v>-20.493000000000009</v>
+        <f t="shared" ref="P12:R12" si="9">P8-P11</f>
+        <v>-126.26060000000001</v>
       </c>
       <c r="Q12" s="7">
+        <f t="shared" si="9"/>
+        <v>-137.06200000000001</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="9"/>
+        <v>-84.473000000000013</v>
+      </c>
+      <c r="S12" s="7">
+        <f>+S8-S11</f>
+        <v>-62.064999999999998</v>
+      </c>
+      <c r="T12" s="7">
+        <f>+T8-T11</f>
+        <v>-29.478999999999985</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" ref="U12:V12" si="10">+U8-U11</f>
+        <v>38.942000000000007</v>
+      </c>
+      <c r="V12" s="7">
         <f t="shared" si="10"/>
-        <v>6.2309999999999945</v>
-      </c>
-      <c r="R12" s="7">
-        <f t="shared" si="10"/>
-        <v>42.964599999999976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>66.289000000000016</v>
+      </c>
+      <c r="AD12" s="7">
+        <f>+AD8-AD11</f>
+        <v>-517.00399999999991</v>
+      </c>
+      <c r="AE12" s="7">
+        <f>+AE8-AE11</f>
+        <v>13.687000000000012</v>
+      </c>
+      <c r="AF12" s="7">
+        <f t="shared" ref="AF12:AG12" si="11">+AF8-AF11</f>
+        <v>733.34640000000013</v>
+      </c>
+      <c r="AG12" s="7">
+        <f t="shared" si="11"/>
+        <v>961.80873900000017</v>
+      </c>
+      <c r="AH12" s="7">
+        <f t="shared" ref="AH12" si="12">+AH8-AH11</f>
+        <v>1131.2935338900004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1937,15 +2259,46 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="N13" s="19">
+        <f>4.575-7.738</f>
+        <v>-3.1630000000000003</v>
+      </c>
       <c r="O13" s="7">
         <f>5.393-7.529-0.277</f>
         <v>-2.4130000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="7">
+        <f>6.002-7.341</f>
+        <v>-1.3390000000000004</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>4.989-7.31</f>
+        <v>-2.3209999999999997</v>
+      </c>
+      <c r="R13" s="7">
+        <f>-7.402+4.548</f>
+        <v>-2.8540000000000001</v>
+      </c>
+      <c r="S13" s="7">
+        <f>3.303-6.967</f>
+        <v>-3.6639999999999997</v>
+      </c>
+      <c r="T13" s="7">
+        <f>3.184-9.359</f>
+        <v>-6.1749999999999998</v>
+      </c>
+      <c r="AD13" s="7">
+        <f>SUM(O13:R13)</f>
+        <v>-8.9269999999999996</v>
+      </c>
+      <c r="AE13" s="7">
+        <f>SUM(S13:V13)</f>
+        <v>-9.8389999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1958,27 +2311,66 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="7">
+        <f>N12+N13</f>
+        <v>-167.16900000000001</v>
+      </c>
       <c r="O14" s="7">
         <f>O12+O13</f>
         <v>-177.49600000000001</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" ref="P14:R14" si="11">P12+P13</f>
-        <v>-20.493000000000009</v>
+        <f t="shared" ref="P14:R14" si="13">P12+P13</f>
+        <v>-127.59960000000001</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="11"/>
-        <v>6.2309999999999945</v>
+        <f t="shared" si="13"/>
+        <v>-139.38300000000001</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="11"/>
-        <v>42.964599999999976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>-87.327000000000012</v>
+      </c>
+      <c r="S14" s="7">
+        <f>+S12+S13</f>
+        <v>-65.728999999999999</v>
+      </c>
+      <c r="T14" s="7">
+        <f>+T12+T13</f>
+        <v>-35.653999999999982</v>
+      </c>
+      <c r="U14" s="7">
+        <f>+U12+U13</f>
+        <v>38.942000000000007</v>
+      </c>
+      <c r="V14" s="7">
+        <f>+V12+V13</f>
+        <v>66.289000000000016</v>
+      </c>
+      <c r="AD14" s="7">
+        <f>+AD12+AD13</f>
+        <v>-525.93099999999993</v>
+      </c>
+      <c r="AE14" s="7">
+        <f>+AE12+AE13</f>
+        <v>3.8480000000000132</v>
+      </c>
+      <c r="AF14" s="7">
+        <f t="shared" ref="AF14:AG14" si="14">+AF12+AF13</f>
+        <v>733.34640000000013</v>
+      </c>
+      <c r="AG14" s="7">
+        <f t="shared" si="14"/>
+        <v>961.80873900000017</v>
+      </c>
+      <c r="AH14" s="7">
+        <f t="shared" ref="AH14" si="15">+AH12+AH13</f>
+        <v>1131.2935338900004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -1991,14 +2383,51 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="7">
+        <v>0.28199999999999997</v>
+      </c>
       <c r="O15" s="7">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1.423</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.114</v>
+      </c>
+      <c r="AD15" s="7">
+        <f>SUM(O15:R15)</f>
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AE15" s="7">
+        <f>SUM(S15:V15)</f>
+        <v>0.28400000000000003</v>
+      </c>
+      <c r="AF15" s="7">
+        <f>+AF14*0.1</f>
+        <v>73.334640000000022</v>
+      </c>
+      <c r="AG15" s="7">
+        <f>+AG14*0.2</f>
+        <v>192.36174780000005</v>
+      </c>
+      <c r="AH15" s="7">
+        <f>+AH14*0.2</f>
+        <v>226.25870677800009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -2011,200 +2440,404 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="N16" s="7">
+        <v>-1.4710000000000001</v>
+      </c>
       <c r="O16" s="7">
         <f>O14-O15</f>
         <v>-177.77800000000002</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" ref="P16:R16" si="12">P14-P15</f>
-        <v>-20.493000000000009</v>
+        <f t="shared" ref="P16:R16" si="16">P14-P15</f>
+        <v>-127.79360000000001</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="12"/>
-        <v>6.2309999999999945</v>
+        <f t="shared" si="16"/>
+        <v>-139.61600000000001</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="12"/>
-        <v>42.964599999999976</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>-88.750000000000014</v>
+      </c>
+      <c r="S16" s="7">
+        <f>+S14-S15</f>
+        <v>-65.899000000000001</v>
+      </c>
+      <c r="T16" s="7">
+        <f>+T14-T15</f>
+        <v>-35.767999999999979</v>
+      </c>
+      <c r="U16" s="7">
+        <f>+U14-U15</f>
+        <v>38.942000000000007</v>
+      </c>
+      <c r="V16" s="7">
+        <f>+V14-V15</f>
+        <v>66.289000000000016</v>
+      </c>
+      <c r="AD16" s="7">
+        <f>+AD14-AD15</f>
+        <v>-528.06299999999987</v>
+      </c>
+      <c r="AE16" s="7">
+        <f>+AE14-AE15</f>
+        <v>3.5640000000000134</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" ref="AF16:AG16" si="17">+AF14-AF15</f>
+        <v>660.01176000000009</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="17"/>
+        <v>769.44699120000018</v>
+      </c>
+      <c r="AH16" s="7">
+        <f t="shared" ref="AH16" si="18">+AH14-AH15</f>
+        <v>905.03482711200036</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" s="1">
+        <f>+N16/N18</f>
+        <v>-1.3296694356814217E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <f>+O16/O18</f>
+        <v>-1.561209076858227</v>
+      </c>
+      <c r="P17" s="1">
+        <f>+P16/P18</f>
+        <v>-1.0710516611351371</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>+Q16/Q18</f>
+        <v>-1.1606424367372727</v>
+      </c>
+      <c r="R17" s="1">
+        <f>+R16/R18</f>
+        <v>-0.73206744093968601</v>
+      </c>
+      <c r="S17" s="1">
+        <f>+S16/S18</f>
+        <v>-0.53595159283326699</v>
+      </c>
+      <c r="T17" s="1">
+        <f>+T16/T18</f>
+        <v>-0.28867510330578494</v>
+      </c>
+      <c r="U17" s="1">
+        <f>+U16/U18</f>
+        <v>0.31429170971074388</v>
+      </c>
+      <c r="V17" s="1">
+        <f>+V16/V18</f>
+        <v>0.53500290547520679</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" ref="AD17:AH17" si="19">+AD16/AD18</f>
+        <v>-4.4495441446603401</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="19"/>
+        <v>2.8819271068128493E-2</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="19"/>
+        <v>5.3369971435444725</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="19"/>
+        <v>6.2219139764165554</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="19"/>
+        <v>7.3183063997299236</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O18" s="23">
+        <v>117</v>
+      </c>
+      <c r="N18" s="7">
+        <v>110.629</v>
+      </c>
+      <c r="O18" s="7">
+        <v>113.872</v>
+      </c>
+      <c r="P18" s="7">
+        <v>119.316</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>120.292</v>
+      </c>
+      <c r="R18" s="7">
+        <v>121.232</v>
+      </c>
+      <c r="S18" s="7">
+        <v>122.95699999999999</v>
+      </c>
+      <c r="T18" s="7">
+        <v>123.904</v>
+      </c>
+      <c r="U18" s="7">
+        <f>+T18</f>
+        <v>123.904</v>
+      </c>
+      <c r="V18" s="7">
+        <f>+U18</f>
+        <v>123.904</v>
+      </c>
+      <c r="AD18" s="7">
+        <f>AVERAGE(O18:R18)</f>
+        <v>118.678</v>
+      </c>
+      <c r="AE18" s="7">
+        <f>AVERAGE(S18:V18)</f>
+        <v>123.66725</v>
+      </c>
+      <c r="AF18" s="7">
+        <f>+AE18</f>
+        <v>123.66725</v>
+      </c>
+      <c r="AG18" s="7">
+        <f>+AF18</f>
+        <v>123.66725</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" ref="AH18" si="20">+AG18</f>
+        <v>123.66725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23">
+        <f>+R6/N6-1</f>
+        <v>5.44746807573756</v>
+      </c>
+      <c r="S20" s="23">
+        <f>+S6/O6-1</f>
+        <v>2.8431521205904655</v>
+      </c>
+      <c r="T20" s="23">
+        <f>+T6/P6-1</f>
+        <v>1.1010376325980804</v>
+      </c>
+      <c r="U20" s="23">
+        <f>+U6/Q6-1</f>
+        <v>0.85750382640354283</v>
+      </c>
+      <c r="V20" s="23">
+        <f>+V6/R6-1</f>
+        <v>0.57831473412465328</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="23">
+        <f>N8/N6</f>
+        <v>0.87120211360634081</v>
+      </c>
+      <c r="O21" s="23">
         <f>O8/O6</f>
         <v>0.82587075770414309</v>
       </c>
-      <c r="P18" s="23">
-        <f t="shared" ref="P18:R18" si="13">P8/P6</f>
+      <c r="P21" s="23">
+        <f t="shared" ref="P21:V21" si="21">P8/P6</f>
         <v>0.85</v>
       </c>
-      <c r="Q18" s="23">
-        <f t="shared" si="13"/>
-        <v>0.85</v>
-      </c>
-      <c r="R18" s="23">
-        <f t="shared" si="13"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="7">
-        <f>O21-O35</f>
+      <c r="Q21" s="23">
+        <f t="shared" si="21"/>
+        <v>0.79704212213698977</v>
+      </c>
+      <c r="R21" s="23">
+        <f t="shared" si="21"/>
+        <v>0.86400950676810861</v>
+      </c>
+      <c r="S21" s="23">
+        <f t="shared" si="21"/>
+        <v>0.88274441543371041</v>
+      </c>
+      <c r="T21" s="23">
+        <f t="shared" si="21"/>
+        <v>0.88429694113168611</v>
+      </c>
+      <c r="U21" s="23">
+        <f t="shared" si="21"/>
+        <v>0.9</v>
+      </c>
+      <c r="V21" s="23">
+        <f t="shared" si="21"/>
+        <v>0.9</v>
+      </c>
+      <c r="W21" s="23"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="7">
+        <f>O24-O38</f>
         <v>673.54899999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O24" s="7">
         <f>765.083+1.275</f>
         <v>766.35799999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="7">
+        <v>31.504999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="7">
-        <v>31.504999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="O26" s="7">
+        <v>85.483999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="7">
-        <v>85.483999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="O27" s="7">
+        <v>36.558999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="O24" s="7">
-        <v>36.558999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="O28" s="7">
+        <v>34.348999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="O25" s="7">
-        <v>34.348999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="O29" s="7">
+        <v>17.853999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="O26" s="7">
-        <v>17.853999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="O30" s="7">
+        <v>5.9669999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="7">
-        <v>5.9669999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="O31" s="7">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="O28" s="7">
-        <v>0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="7">
-        <f>SUM(O21:O28)</f>
+      <c r="O32" s="7">
+        <f>SUM(O24:O31)</f>
         <v>978.86900000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="7">
+        <v>31.494</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="O31" s="7">
-        <v>31.494</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="O35" s="7">
+        <v>71.251000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="O32" s="7">
-        <v>71.251000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O33" s="7">
+      <c r="O36" s="7">
         <f>30.071+321.713</f>
         <v>351.78400000000005</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="O34" s="7">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="7">
         <f>5.828+13.233</f>
         <v>19.061</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" s="7">
-        <v>92.808999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37" s="7">
-        <v>412.12299999999999</v>
-      </c>
-    </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="7">
+        <v>92.808999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="O38" s="7">
-        <f>SUM(O31:O37)</f>
+      <c r="O40" s="7">
+        <v>412.12299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" s="7">
+        <f>SUM(O34:O40)</f>
         <v>978.86899999999991</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O39" s="7"/>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2218,9 +2851,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEC44E-3A9A-47B3-8A31-8E621049E97B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2278,7 +2913,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,19 +2931,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2349,23 +2994,23 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,12 +3020,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2390,7 +3035,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">

--- a/APLS.xlsx
+++ b/APLS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50459951-39FF-4714-B680-077D0DFF7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F72DD0-AFB7-412D-A43C-EFC03D42F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23220" yWindow="990" windowWidth="22260" windowHeight="19395" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
+    <workbookView xWindow="-49470" yWindow="2400" windowWidth="32550" windowHeight="17250" activeTab="2" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>Phase II HSCT-TMA</t>
+  </si>
+  <si>
+    <t>PEG patent</t>
+  </si>
+  <si>
+    <t>US10035822B2 - 2033 patent, extending to 2035</t>
+  </si>
+  <si>
+    <t>7888323 - expires 2027</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1109,7 @@
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1386,11 +1395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2501,59 +2510,59 @@
         <v>118</v>
       </c>
       <c r="N17" s="1">
-        <f>+N16/N18</f>
+        <f t="shared" ref="N17:V17" si="19">+N16/N18</f>
         <v>-1.3296694356814217E-2</v>
       </c>
       <c r="O17" s="1">
-        <f>+O16/O18</f>
+        <f t="shared" si="19"/>
         <v>-1.561209076858227</v>
       </c>
       <c r="P17" s="1">
-        <f>+P16/P18</f>
+        <f t="shared" si="19"/>
         <v>-1.0710516611351371</v>
       </c>
       <c r="Q17" s="1">
-        <f>+Q16/Q18</f>
+        <f t="shared" si="19"/>
         <v>-1.1606424367372727</v>
       </c>
       <c r="R17" s="1">
-        <f>+R16/R18</f>
+        <f t="shared" si="19"/>
         <v>-0.73206744093968601</v>
       </c>
       <c r="S17" s="1">
-        <f>+S16/S18</f>
+        <f t="shared" si="19"/>
         <v>-0.53595159283326699</v>
       </c>
       <c r="T17" s="1">
-        <f>+T16/T18</f>
+        <f t="shared" si="19"/>
         <v>-0.28867510330578494</v>
       </c>
       <c r="U17" s="1">
-        <f>+U16/U18</f>
+        <f t="shared" si="19"/>
         <v>0.31429170971074388</v>
       </c>
       <c r="V17" s="1">
-        <f>+V16/V18</f>
+        <f t="shared" si="19"/>
         <v>0.53500290547520679</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AH17" si="19">+AD16/AD18</f>
+        <f t="shared" ref="AD17:AH17" si="20">+AD16/AD18</f>
         <v>-4.4495441446603401</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.8819271068128493E-2</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.3369971435444725</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2219139764165554</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.3183063997299236</v>
       </c>
     </row>
@@ -2607,7 +2616,7 @@
         <v>123.66725</v>
       </c>
       <c r="AH18" s="7">
-        <f t="shared" ref="AH18" si="20">+AG18</f>
+        <f t="shared" ref="AH18" si="21">+AG18</f>
         <v>123.66725</v>
       </c>
     </row>
@@ -2654,31 +2663,31 @@
         <v>0.82587075770414309</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" ref="P21:V21" si="21">P8/P6</f>
+        <f t="shared" ref="P21:V21" si="22">P8/P6</f>
         <v>0.85</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.79704212213698977</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.86400950676810861</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.88274441543371041</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.88429694113168611</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="W21" s="23"/>
@@ -2851,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEC44E-3A9A-47B3-8A31-8E621049E97B}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2863,12 +2872,12 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -2892,7 +2901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -2900,7 +2909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -2916,43 +2925,61 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>123</v>
       </c>
     </row>
